--- a/DQ and Practice Question Assessment List for iCompass.xlsx
+++ b/DQ and Practice Question Assessment List for iCompass.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All Data\Sangeetha\1. College Hires\ELTP\DQ Practice Test Assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All Data\Sangeetha\1. College Hires\10Weeks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B6EF2-E77B-4262-8417-50621FF9CE7F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBEECA6-AC99-4ECB-BBE4-F104EAAF81D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DQ" sheetId="8" r:id="rId1"/>
     <sheet name="Practice Question" sheetId="9" r:id="rId2"/>
+    <sheet name="Microsoft DQs" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,90 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Chandrasekaran, Sangeetha</author>
-  </authors>
-  <commentList>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{98D86BD6-6046-42AA-998F-9BF2F543D579}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chandrasekaran, Sangeetha:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-C# 6.0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{01E17184-414F-4A74-8A9B-59526C3D79E1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chandrasekaran, Sangeetha:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Dockers</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{ECE7EF7F-E948-448F-ADF8-05773A6ED7CB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chandrasekaran, Sangeetha:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SOLID &amp; Design P &amp; P</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
   <si>
     <t>Web Basics</t>
   </si>
@@ -422,9 +341,6 @@
     <t>DN ASP.Net Identity DQ S1 Day 3</t>
   </si>
   <si>
-    <t>L1 DotNet Mod 1 SQL Server Practice Test</t>
-  </si>
-  <si>
     <t>L1 DotNet Mod 2 Practice Test</t>
   </si>
   <si>
@@ -437,28 +353,101 @@
     <t>L1 DotNet Mod 1 Practice Test</t>
   </si>
   <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>DQ Name</t>
+  </si>
+  <si>
+    <t>Program Flow</t>
+  </si>
+  <si>
+    <t>DQ - Program Flow</t>
+  </si>
+  <si>
+    <t>Multi Threading</t>
+  </si>
+  <si>
+    <t>DQ - Multi Threading</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>DQ - Exception Handling</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>DQ - Encryption</t>
+  </si>
+  <si>
+    <t>Create Types</t>
+  </si>
+  <si>
+    <t>DQ - Create Types</t>
+  </si>
+  <si>
+    <t>Consume Types</t>
+  </si>
+  <si>
+    <t>DQ - Consume Types</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>DQ - Reflection</t>
+  </si>
+  <si>
+    <t>Class Hierarchy</t>
+  </si>
+  <si>
+    <t>DQ - Class Hierarchy</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>DN Angular DQ S1 Day 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP.NET 4.5 </t>
+  </si>
+  <si>
     <t>DN C Sharp DQ S1 Day 3</t>
   </si>
   <si>
-    <r>
-      <t>DN E and D DQ S1 Day 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>SignalR</t>
+  </si>
+  <si>
+    <t>DN MS Data and Collections DQ</t>
+  </si>
+  <si>
+    <t>DN MS Working with LINQ DQ</t>
+  </si>
+  <si>
+    <t>DN MS Debugging DQ</t>
+  </si>
+  <si>
+    <t>Colletions</t>
+  </si>
+  <si>
+    <t>LINQ</t>
+  </si>
+  <si>
+    <t>Debugging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,27 +491,8 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,12 +513,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -878,10 +860,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -891,11 +884,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -906,7 +933,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -915,6 +942,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -924,9 +964,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -936,124 +974,42 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1063,9 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1079,14 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1095,37 +1041,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1137,64 +1112,210 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1205,6 +1326,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DF14E63-625C-4225-9D56-9EF5F6824328}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:C6" xr:uid="{23DEEC6C-D4F2-4E56-AA86-AF5171D070E5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6A93B9D4-0C48-4CE0-87ED-A1506CC06F59}" name="Module" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B0CF1FF2-AE75-4F1C-8D07-CC9A421C33BD}" name="Course Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{24052678-0A66-41A9-B71A-2E94A2793061}" name="Practice Assessment Name" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DA34C4DB-F131-4BDB-9A22-9944D0F44946}" name="Table2" displayName="Table2" ref="A1:C12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C12" xr:uid="{2B1DC16C-463A-45B1-A7C5-266EC615F5F5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{55E0E239-F8C2-46B3-8FA3-AD265A996962}" name="Sr. No."/>
+    <tableColumn id="2" xr3:uid="{B7EFAF5F-0E29-4557-8834-FF81E1BDB9B6}" name="Topic"/>
+    <tableColumn id="3" xr3:uid="{6542EA00-79EC-43CB-8284-0F61CC0F95AD}" name="DQ Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1469,11 +1614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1485,529 +1630,541 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="47"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="47"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="47"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="47"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="47"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="47"/>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="47"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="47"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="47"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="47"/>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="29" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="50"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="29"/>
+    <row r="19" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="50"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="29" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="50"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="50"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="29" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="50"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="29" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="29" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="29" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="29" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="52"/>
-      <c r="B28" s="8" t="s">
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="60"/>
+      <c r="B27" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C27" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D27" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+    <row r="28" spans="1:4" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="49"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>60</v>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="54"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="6" t="s">
+      <c r="A31" s="62"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D31" s="27" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="62"/>
+      <c r="B32" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>53</v>
+      <c r="A33" s="62"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="54"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>54</v>
+      <c r="A34" s="62"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="54"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>55</v>
+      <c r="A35" s="62"/>
+      <c r="B35" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="54"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="6" t="s">
+      <c r="A36" s="62"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D36" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="22"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="40" t="s">
+    <row r="37" spans="1:4" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="50"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B38" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C38" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D38" s="23" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="39" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="75"/>
+      <c r="B39" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="33"/>
+    </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="41"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="33" t="s">
+      <c r="A40" s="75"/>
+      <c r="B40" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="41"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="33" t="s">
+      <c r="A41" s="75"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="41"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="33" t="s">
+      <c r="A42" s="75"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="41"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="33" t="s">
+    <row r="43" spans="1:4" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="75"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="75"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D44" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="41"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="33" t="s">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="75"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D45" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="41"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="33" t="s">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="75"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D46" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="41"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="30"/>
-    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="41"/>
-      <c r="B47" s="59" t="s">
+      <c r="A47" s="75"/>
+      <c r="B47" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="41"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="36" t="s">
+      <c r="A48" s="75"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="41"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="36" t="s">
+      <c r="A49" s="75"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="42"/>
-      <c r="B50" s="39" t="s">
+      <c r="A50" s="75"/>
+      <c r="B50" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
+    <row r="51" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="75"/>
+      <c r="B51" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="47"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A16:A28"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A51"/>
     <mergeCell ref="B40:B46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2016,7 +2173,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2028,76 +2185,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="18" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F134945-124B-47B1-8135-F8B07001ACC4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2111,6 +2425,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Material_x0020_Type xmlns="ff9673e2-8703-4f54-a1af-e608932f257d">Quiz</Material_x0020_Type>
+    <Level xmlns="ff9673e2-8703-4f54-a1af-e608932f257d">L1</Level>
+    <Category xmlns="ff9673e2-8703-4f54-a1af-e608932f257d">Assessment Component</Category>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079AE12BA53767D44BC77A4C9A1ECA869" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f67ee02f4c6147b21582c34896ffff31">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff9673e2-8703-4f54-a1af-e608932f257d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="17688dc9c4f9013ba065dbc1ba4ba8a6" ns2:_="">
     <xsd:import namespace="ff9673e2-8703-4f54-a1af-e608932f257d"/>
@@ -2269,16 +2593,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Material_x0020_Type xmlns="ff9673e2-8703-4f54-a1af-e608932f257d">Quiz</Material_x0020_Type>
-    <Level xmlns="ff9673e2-8703-4f54-a1af-e608932f257d">L1</Level>
-    <Category xmlns="ff9673e2-8703-4f54-a1af-e608932f257d">Assessment Component</Category>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5000AB1-7379-4CB8-9AAA-DE0628A1CDD5}">
   <ds:schemaRefs>
@@ -2288,6 +2602,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AC012B4-8063-4FC4-B190-CC4BD4A63D26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ff9673e2-8703-4f54-a1af-e608932f257d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59A37541-E015-4EFD-BB64-5B924475F907}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2303,20 +2633,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AC012B4-8063-4FC4-B190-CC4BD4A63D26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ff9673e2-8703-4f54-a1af-e608932f257d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>